--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed3/result_data_KNN.xlsx
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6</v>
+        <v>6.284999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>6.096</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.506</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.516</v>
+        <v>5.137</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.257999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.763</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.506</v>
+        <v>5.139</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>5.828000000000001</v>
+        <v>5.614</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.475999999999999</v>
+        <v>7.711000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.529999999999999</v>
+        <v>5.894</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.098000000000001</v>
+        <v>5.457</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
